--- a/dl_eurosat_info.xlsx
+++ b/dl_eurosat_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoOne\OneDrive - BTT GROUP UAB\Documents\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoOne\OneDrive - BTT GROUP UAB\Documents\AI\4_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980A920-8843-4644-86CA-92226C6CC47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93467DE8-7EDA-4BFA-A3CD-89812F32B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28622" yWindow="-119" windowWidth="28741" windowHeight="15677" activeTab="2" xr2:uid="{91D2B0CB-E679-46A0-A3B7-B64E998F5A43}"/>
+    <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" activeTab="2" xr2:uid="{91D2B0CB-E679-46A0-A3B7-B64E998F5A43}"/>
   </bookViews>
   <sheets>
     <sheet name="check_data" sheetId="1" r:id="rId1"/>
@@ -421,50 +421,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD53E22-3538-4330-A519-B17291CA8F6D}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -1070,110 +1070,110 @@
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>

--- a/dl_eurosat_info.xlsx
+++ b/dl_eurosat_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoOne\OneDrive - BTT GROUP UAB\Documents\AI\4_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93467DE8-7EDA-4BFA-A3CD-89812F32B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A661FFC0-AF49-429C-AAE2-D7DAF658BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" activeTab="2" xr2:uid="{91D2B0CB-E679-46A0-A3B7-B64E998F5A43}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>

--- a/dl_eurosat_info.xlsx
+++ b/dl_eurosat_info.xlsx
@@ -1,115 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoOne\OneDrive - BTT GROUP UAB\Documents\AI\4_DL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A661FFC0-AF49-429C-AAE2-D7DAF658BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-119" yWindow="-119" windowWidth="28741" windowHeight="15677" activeTab="2" xr2:uid="{91D2B0CB-E679-46A0-A3B7-B64E998F5A43}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="check_data" sheetId="1" r:id="rId1"/>
-    <sheet name="mean_std" sheetId="2" r:id="rId2"/>
-    <sheet name="size_of_imgs" sheetId="3" r:id="rId3"/>
+    <sheet name="check_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mean_std" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="size_of_imgs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>check_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes:  ['AnnualCrop', 'Forest', 'HerbaceousVegetation', 'Highway', 'Industrial', 'Pasture', 'PermanentCrop', 'Residential', 'River', 'SeaLake'] 10</t>
+  </si>
   <si>
     <t xml:space="preserve">{'AnnualCrop': 3000, 'Forest': 3000, 'HerbaceousVegetation': 3000, 'Highway': 2500, 'Industrial': 2500, 'Pasture': 2000, 'PermanentCrop': 2500, 'Residential': 3000, 'River': 2500, 'SeaLake': 3000}  </t>
   </si>
   <si>
-    <t>Classes:  ['AnnualCrop', 'Forest', 'HerbaceousVegetation', 'Highway', 'Industrial', 'Pasture', 'PermanentCrop', 'Residential', 'River', 'SeaLake'] 10</t>
-  </si>
-  <si>
-    <t>check_data</t>
-  </si>
-  <si>
     <t>mean_std</t>
   </si>
   <si>
-    <t>==&gt; Computing mean and std..</t>
+    <t xml:space="preserve">==&gt; Computing mean and std..</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensor([0.3444, 0.3803, 0.4078]) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensor([0.0914, 0.0651, 0.0552])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created file mean_std.py to count mean and std of data for better accuracy, acording to this link</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/58151507/why-pytorch-officially-use-mean-0-485-0-456-0-406-and-std-0-229-0-224-0-2</t>
   </si>
   <si>
-    <t>Created file mean_std.py to count mean and std of data for better accuracy, acording to this link</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tensor([0.3444, 0.3803, 0.4078]) </t>
-  </si>
-  <si>
-    <t>tensor([0.0914, 0.0651, 0.0552])</t>
-  </si>
-  <si>
     <t>size_of_imgs</t>
   </si>
   <si>
-    <t>Scatter of images by size</t>
+    <t xml:space="preserve">Scatter of images by size</t>
   </si>
   <si>
     <t>https://medium.com/analytics-vidhya/how-to-pick-the-optimal-image-size-for-training-convolution-neural-network-65702b880f05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epocha 30/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Treniravimo nuostolis: 0.3691, Tikslumas: 87.19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Validacijos nuostolis: 0.4118, Tikslumas: 86.17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testavimo tikslumas: 87.37%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="186"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="186"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,370 +108,373 @@
   </fills>
   <borders count="22">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -506,13 +495,13 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>56561</xdr:rowOff>
+      <xdr:rowOff>56560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -522,24 +511,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDF851B-059D-21BD-97CE-0566D60FD18E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="433633"/>
           <a:ext cx="14034059" cy="2631386"/>
@@ -566,24 +547,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644A82C8-304E-4C55-5FE6-FD4F3D84B7A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="3638747"/>
           <a:ext cx="6139901" cy="5291066"/>
@@ -599,7 +572,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -615,24 +588,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A7C718-9875-9EF7-3970-D229463C90B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1414020" y="801277"/>
           <a:ext cx="3772596" cy="4140425"/>
@@ -644,11 +609,325 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11753849" cy="5524499"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2032999071" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743199" y="5623559"/>
+          <a:ext cx="11753849" cy="5524499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,108 +969,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,7 +984,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -825,7 +1010,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -877,16 +1062,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -902,7 +1099,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -934,7 +1131,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -953,28 +1150,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD53E22-3538-4330-A519-B17291CA8F6D}">
-  <dimension ref="A1:U19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
+      <selection activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -997,7 +1187,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,10 +1212,10 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="18" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15.6"/>
+    <row r="19" ht="15.6">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1054,126 +1244,128 @@
     <mergeCell ref="A19:U19"/>
     <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E2FEC1-9E6F-4B43-A460-C73B5FA6873D}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" ht="15.6">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1187,23 +1379,25 @@
     <mergeCell ref="H4:M4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{73704BAC-A580-4FA3-85B8-896E8C4F8CA5}"/>
+    <hyperlink r:id="rId1" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153EC09E-0C0B-4F7D-80D6-E8A750D219E4}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A21" zoomScale="100" workbookViewId="0">
+      <selection activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1411,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15.6">
       <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1425,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.6">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -1245,6 +1439,32 @@
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
     </row>
+    <row r="36" ht="14.25">
+      <c r="E36" s="26"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="E78"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -1252,9 +1472,12 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{7ABAA13A-AEF4-406E-9D20-6C36F98F1793}"/>
+    <hyperlink r:id="rId1" ref="A3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>